--- a/results/pvalue_SIDER_all_DGI_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_all_DGI_AUPR+AUROC.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24.137</t>
+          <t>11.481</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25.088</t>
+          <t>11.557</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.113</t>
+          <t>13.181</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>15.196</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>35.277</t>
+          <t>35.289</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>34.965</t>
+          <t>34.976</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36.803</t>
+          <t>36.814</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>42.231</t>
+          <t>42.245</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16.853</t>
+          <t>19.472</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
